--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-2.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1308 +436,1308 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>this one</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ぎんこう</t>
+          <t>これ</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>convenience store</t>
+          <t>that one</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>コンビニ</t>
+          <t>それ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>toilet; restroom</t>
+          <t>that one (over there)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>トイレ</t>
+          <t>あれ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>which one</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>としょかん</t>
+          <t>どれ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>post office</t>
+          <t>this...</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ゆうびんきょく</t>
+          <t>この</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Britain</t>
+          <t>that...</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>イギリス</t>
+          <t>その</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>that... (over there)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>かんこく</t>
+          <t>あの</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>which...</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ちゅうごく</t>
+          <t>どの</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>here</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>せん</t>
+          <t>ここ</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>there</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>にせん</t>
+          <t>そこ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>over there</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>さんぜん</t>
+          <t>あそこ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>where</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>よんせん</t>
+          <t>どこ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>who</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ごせん</t>
+          <t>だれ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>set meal; special (of the day)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ろくせん</t>
+          <t>ていしょく</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ななせん</t>
+          <t>パスタ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>curry</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>はっせん</t>
+          <t>カレー</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>soba</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>きゅうせん</t>
+          <t>そば</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>delicious</t>
+          <t>udon</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>おいしい</t>
+          <t>うどん</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>sandwich</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>さかな</t>
+          <t>サンドイッチ</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pork cutlet</t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>とんかつ</t>
+          <t>アイスクリーム</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>ramen</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>にく</t>
+          <t>ラーメン</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>hamburger</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>メニュー</t>
+          <t>ハンバーガー</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vegetable</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>やさい</t>
+          <t>コーヒー</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>how much</t>
+          <t>cola</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>いくら</t>
+          <t>コーラ</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>...yen</t>
+          <t>salad</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>～えん</t>
+          <t>サラダ</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>expensive; high</t>
+          <t>black tea</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>たかい</t>
+          <t>こうちゃ</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Welcome (to our store).</t>
+          <t>juice</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>いらっしゃいませ</t>
+          <t>ジュース</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>..., please.</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>（～を）おねがいします</t>
+          <t>ミルク</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Please give me...</t>
+          <t>blackboard</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>（～を）ください</t>
+          <t>こくばん</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>then...; if that is the case,...</t>
+          <t>light</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>じゃあ</t>
+          <t>でんき</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Please.; Here it is.</t>
+          <t>door</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>どうぞ</t>
+          <t>ドア</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Thank you.</t>
+          <t>curtain</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>どうも</t>
+          <t>カーテン</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>blackboard</t>
+          <t>window</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>こくばん</t>
+          <t>まど</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>light</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>でんき</t>
+          <t>いす</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ドア</t>
+          <t>つくえ</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>curtain</t>
+          <t>eraser</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>カーテン</t>
+          <t>けしゴム</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>window</t>
+          <t>book</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>まど</t>
+          <t>ほん</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>dictionary</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>いす</t>
+          <t>じしょ</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>pencil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>つくえ</t>
+          <t>えんぴつ</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>eraser</t>
+          <t>Do you understand?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>けしゴム</t>
+          <t>わかりましたか。</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>I understand./I understood.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ほん</t>
+          <t>わかりました。</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dictionary</t>
+          <t>I don't understand./I don't know.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>じしょ</t>
+          <t>わかりません。</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pencil</t>
+          <t>Please say it slowly.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>えんぴつ</t>
+          <t>ゆっくりいってください。</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>this one</t>
+          <t>Please say it again.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>これ</t>
+          <t>もういちどいってください。</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>that one</t>
+          <t>Please wait for a while.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>それ</t>
+          <t>ちょっとまってください。</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>that one (over there)</t>
+          <t>Please listen./Please ask.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>あれ</t>
+          <t>きいてください。</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>which one</t>
+          <t>Please look at page 10.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>どれ</t>
+          <t>10ページをみてください。</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>this...</t>
+          <t>delicious</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>この</t>
+          <t>おいしい</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>that...</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>その</t>
+          <t>さかな</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>that... (over there)</t>
+          <t>pork cutlet</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>あの</t>
+          <t>とんかつ</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>which...</t>
+          <t>meat</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>どの</t>
+          <t>にく</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>here</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ここ</t>
+          <t>メニュー</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>vegetable</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>そこ</t>
+          <t>やさい</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>over there</t>
+          <t>umbrella</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>あそこ</t>
+          <t>かさ</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>どこ</t>
+          <t>かばん</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>shoes</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>だれ</t>
+          <t>くつ</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>umbrella</t>
+          <t>wallet</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>かさ</t>
+          <t>さいふ</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>jeans</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>かばん</t>
+          <t>ジーンズ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>shoes</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>くつ</t>
+          <t>じてんしゃ</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>wallet</t>
+          <t>newspaper</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>さいふ</t>
+          <t>しんぶん</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jeans</t>
+          <t>smartphone; mobile</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ジーンズ</t>
+          <t>スマホ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>T-shirt</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>じてんしゃ</t>
+          <t>Tシャツ</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>newspaper</t>
+          <t>watch; clock</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>しんぶん</t>
+          <t>とけい</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>smartphone; mobile</t>
+          <t>notebook</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>スマホ</t>
+          <t>ノート</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>T-shirt</t>
+          <t>pen</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tシャツ</t>
+          <t>ペン</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>watch; clock</t>
+          <t>hat; cap</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>とけい</t>
+          <t>ぼうし</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>notebook</t>
+          <t>book</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ノート</t>
+          <t>ほん</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>pen</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ペン</t>
+          <t>ぎんこう</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>hat; cap</t>
+          <t>convenience store</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ぼうし</t>
+          <t>コンビニ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>toilet; restroom</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ほん</t>
+          <t>トイレ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>set meal; special (of the day)</t>
+          <t>library</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ていしょく</t>
+          <t>としょかん</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>post office</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>パスタ</t>
+          <t>ゆうびんきょく</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>curry</t>
+          <t>Britain</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>カレー</t>
+          <t>イギリス</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>soba</t>
+          <t>Korea</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>そば</t>
+          <t>かんこく</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>udon</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>うどん</t>
+          <t>ちゅうごく</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sandwich</t>
+          <t>English (language)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>サンドイッチ</t>
+          <t>えいご</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ice cream</t>
+          <t>economics</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>アイスクリーム</t>
+          <t>けいざい</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ramen</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ラーメン</t>
+          <t>コンピューター</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hamburger</t>
+          <t>business</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ハンバーガー</t>
+          <t>ビジネス</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>history</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>コーヒー</t>
+          <t>れきし</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>cola</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>コーラ</t>
+          <t>おかあさん</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>salad</t>
+          <t>father</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>サラダ</t>
+          <t>おとうさん</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>black tea</t>
+          <t>how much</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>こうちゃ</t>
+          <t>いくら</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>juice</t>
+          <t>...yen</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ジュース</t>
+          <t>～えん</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>expensive; high</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ミルク</t>
+          <t>たかい</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Welcome (to our store).</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ひゃく</t>
+          <t>いらっしゃいませ</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>..., please.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>にひゃく</t>
+          <t>（～を）おねがいします</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Please give me...</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>さんびゃく</t>
+          <t>（～を）ください</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>then...; if that is the case,...</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>よんひゃく</t>
+          <t>じゃあ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Please.; Here it is.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ごひゃく</t>
+          <t>どうぞ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>Thank you.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ろっぴゃく</t>
+          <t>どうも</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ななひゃく</t>
+          <t>ひゃく</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>はっぴゃく</t>
+          <t>にひゃく</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>きゅうひゃく</t>
+          <t>さんびゃく</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>English (language)</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>えいご</t>
+          <t>よんひゃく</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>けいざい</t>
+          <t>ごひゃく</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>コンピューター</t>
+          <t>ろっぴゃく</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ビジネス</t>
+          <t>ななひゃく</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>800</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>れきし</t>
+          <t>はっぴゃく</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>900</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>おかあさん</t>
+          <t>きゅうひゃく</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>おとうさん</t>
+          <t>せん</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Do you understand?</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>わかりましたか。</t>
+          <t>にせん</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>I understand./I understood.</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>わかりました。</t>
+          <t>さんぜん</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>I don't understand./I don't know.</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>わかりません。</t>
+          <t>よんせん</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Please say it slowly.</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ゆっくりいってください。</t>
+          <t>ごせん</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Please say it again.</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>もういちどいってください。</t>
+          <t>ろくせん</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Please wait for a while.</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ちょっとまってください。</t>
+          <t>ななせん</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Please listen./Please ask.</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>きいてください。</t>
+          <t>はっせん</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Please look at page 10.</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>10ページをみてください。</t>
+          <t>きゅうせん</t>
         </is>
       </c>
     </row>
@@ -1782,6 +1850,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-2.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-2.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1850,6 +1850,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>